--- a/SubmissionDocs/Project GANTT Chart_final.xlsx
+++ b/SubmissionDocs/Project GANTT Chart_final.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8302BB8F-94F9-0847-90B6-C6A1CE590A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8646C5E5-3493-1F4E-BED0-BB77749468E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34840" yWindow="-5820" windowWidth="37420" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="260" yWindow="-19220" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -2029,9 +2029,9 @@
   </sheetPr>
   <dimension ref="A1:CT33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CX1" sqref="CX1"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CM33" sqref="CM33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3768,7 +3768,7 @@
         <v>48</v>
       </c>
       <c r="C12" s="55">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D12" s="56">
         <f>E10</f>
@@ -3881,7 +3881,7 @@
         <v>49</v>
       </c>
       <c r="C13" s="55">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D13" s="56">
         <f>D12+2</f>
@@ -3995,7 +3995,9 @@
       <c r="B14" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="55"/>
+      <c r="C14" s="55">
+        <v>1</v>
+      </c>
       <c r="D14" s="56">
         <f>E13</f>
         <v>44735</v>
@@ -4106,7 +4108,9 @@
       <c r="B15" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="55"/>
+      <c r="C15" s="55">
+        <v>1</v>
+      </c>
       <c r="D15" s="56">
         <f>D14</f>
         <v>44735</v>
@@ -4217,7 +4221,9 @@
       <c r="B16" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="55"/>
+      <c r="C16" s="55">
+        <v>1</v>
+      </c>
       <c r="D16" s="56">
         <f>D15</f>
         <v>44735</v>
@@ -4433,7 +4439,9 @@
       <c r="B18" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="62"/>
+      <c r="C18" s="62">
+        <v>1</v>
+      </c>
       <c r="D18" s="63">
         <f>D24</f>
         <v>44732</v>
@@ -4544,7 +4552,9 @@
       <c r="B19" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="62"/>
+      <c r="C19" s="62">
+        <v>1</v>
+      </c>
       <c r="D19" s="63">
         <f>E18</f>
         <v>44737</v>
@@ -4657,7 +4667,9 @@
       <c r="B20" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="62"/>
+      <c r="C20" s="62">
+        <v>1</v>
+      </c>
       <c r="D20" s="63">
         <f>E19</f>
         <v>44740</v>
@@ -4768,7 +4780,9 @@
       <c r="B21" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="62"/>
+      <c r="C21" s="62">
+        <v>1</v>
+      </c>
       <c r="D21" s="63">
         <f>E20</f>
         <v>44746</v>
@@ -4879,7 +4893,9 @@
       <c r="B22" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="62"/>
+      <c r="C22" s="62">
+        <v>1</v>
+      </c>
       <c r="D22" s="63">
         <f>D20</f>
         <v>44740</v>
@@ -5095,7 +5111,9 @@
       <c r="B24" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="69"/>
+      <c r="C24" s="69">
+        <v>1</v>
+      </c>
       <c r="D24" s="70">
         <f>E12</f>
         <v>44732</v>
@@ -5206,7 +5224,9 @@
       <c r="B25" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="69"/>
+      <c r="C25" s="69">
+        <v>1</v>
+      </c>
       <c r="D25" s="70">
         <f>E24</f>
         <v>44746</v>
@@ -5319,7 +5339,9 @@
       <c r="B26" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="69"/>
+      <c r="C26" s="69">
+        <v>1</v>
+      </c>
       <c r="D26" s="70">
         <f>E25</f>
         <v>44753</v>
@@ -5430,7 +5452,9 @@
       <c r="B27" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="69"/>
+      <c r="C27" s="69">
+        <v>1</v>
+      </c>
       <c r="D27" s="70">
         <f>E26</f>
         <v>44767</v>
@@ -5541,7 +5565,9 @@
       <c r="B28" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="69"/>
+      <c r="C28" s="69">
+        <v>1</v>
+      </c>
       <c r="D28" s="70">
         <f>E27</f>
         <v>44774</v>
@@ -5652,7 +5678,9 @@
       <c r="B29" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="69"/>
+      <c r="C29" s="69">
+        <v>1</v>
+      </c>
       <c r="D29" s="70">
         <f>E28</f>
         <v>44779</v>
@@ -6280,12 +6308,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6577,29 +6616,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6626,13 +6658,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>